--- a/biology/Botanique/Beurré_Clairgeau/Beurré_Clairgeau.xlsx
+++ b/biology/Botanique/Beurré_Clairgeau/Beurré_Clairgeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Beurré Clairgeau est une variété de poire, aussi nommée Clairgeau de Nantes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Clairgeau de Nantes ;
 Clergeau ;
 Poire Clairgeau ;
-Clairgeau butterbirne (Allemagne)[1].</t>
+Clairgeau butterbirne (Allemagne).</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La variété serait issue de fruits enterrés par hasard, vers 1838, par Pierre Clairgeau, jardinier à Nantes[2]. Son premier rapport a eu lieu en 1848. L'arbre ayant été acheté par un horticulteur belge, c’est la Belgique qui en a été le véritable promoteur.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La variété serait issue de fruits enterrés par hasard, vers 1838, par Pierre Clairgeau, jardinier à Nantes. Son premier rapport a eu lieu en 1848. L'arbre ayant été acheté par un horticulteur belge, c’est la Belgique qui en a été le véritable promoteur.
 Parenté supposée par son obtenteur : « Beurré Duchesse d’Angoulême ».
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un arbre de vigueur moyenne, à cultiver sur franc car faiblement vigoureux sur cognassier et très net manque d'affinité avec ce porte-greffe.
 Port érigé.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Époque de floraison</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Floraison assez précoce.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,11 +659,11 @@
           <t>Mise à fruit</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L’arbre fructifie rapidement.
-Productivité
-Il produit abondamment et régulièrement.
 </t>
         </is>
       </c>
@@ -654,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,21 +689,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Fruit</t>
+          <t>Mise à fruit</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forme et calibre
-Le poirier produit un fruit qui va de gros à assez gros, pyriforme, plus ou moins allongé, asymétrique, maintenu par un pédoncule très court, implanté obliquement à la surface de l’épiderme mi-charnu.
-Chair
-Sa chair est blanche, juteuse, sucrée, légèrement parfumée, un peu granuleuse au centre.
-Date de récolte
-La récolte s’effectue de fin septembre à début octobre selon les régions.
-Époque naturelle de maturité et de consommation
-Mûrit et se consomme l’état naturel d’octobre à novembre.
-Conservation
-Se conserve durant 4 mois en chambre froide.
+          <t>Productivité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il produit abondamment et régulièrement.
 </t>
         </is>
       </c>
@@ -694,7 +711,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -709,18 +726,18 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Appréciations générales</t>
+          <t>Fruit</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sensibilité
-Très sensible à la tavelure sur les fruits et sur les feuilles.
-Très sensible au pseudomonas sur les feuilles, sensibilité moyenne sur le bouton floral, ainsi qu’au stony pit.
-Résistance climatique
-Cette variété résiste très bien aux gelées printanières, ce qui la fait recommander en altitude.
-Résistance au transport
-Résiste bien aux transports et aux manipulations.
+          <t>Forme et calibre</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poirier produit un fruit qui va de gros à assez gros, pyriforme, plus ou moins allongé, asymétrique, maintenu par un pédoncule très court, implanté obliquement à la surface de l’épiderme mi-charnu.
 </t>
         </is>
       </c>
@@ -731,7 +748,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Clairgeau</t>
+          <t>Beurré_Clairgeau</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -746,10 +763,272 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Chair</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa chair est blanche, juteuse, sucrée, légèrement parfumée, un peu granuleuse au centre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Beurré_Clairgeau</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Clairgeau</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Date de récolte</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La récolte s’effectue de fin septembre à début octobre selon les régions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Beurré_Clairgeau</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Clairgeau</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Époque naturelle de maturité et de consommation</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mûrit et se consomme l’état naturel d’octobre à novembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Beurré_Clairgeau</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Clairgeau</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Conservation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se conserve durant 4 mois en chambre froide.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Beurré_Clairgeau</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Clairgeau</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Sensibilité</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Très sensible à la tavelure sur les fruits et sur les feuilles.
+Très sensible au pseudomonas sur les feuilles, sensibilité moyenne sur le bouton floral, ainsi qu’au stony pit.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Beurré_Clairgeau</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Clairgeau</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Résistance climatique</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variété résiste très bien aux gelées printanières, ce qui la fait recommander en altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Beurré_Clairgeau</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Clairgeau</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Appréciations générales</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Résistance au transport</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Résiste bien aux transports et aux manipulations.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Beurré_Clairgeau</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Clairgeau</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>Observations</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
         <is>
           <t xml:space="preserve">Bien que greffé sur franc, pour des raisons d’affinités, sa production reste abondante et régulière. Les qualités gustatives laissent parfois à désirer ; mais en sol chaud, léger et bien drainé, elles restent satisfaisantes.
 L'arbre « Beurré Clairgeau » est principalement cultivé dans le Sud-Ouest où la variété est appréciée des consommateurs.
